--- a/Variable Index.xlsx
+++ b/Variable Index.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijyli\repo\Stat-222-Project\Code\Data Loading and Cleaning\All Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijyli\repo\Stat-222-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A459C012-DD7C-4B71-B273-5D0C934CD580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FD74BF-EBB6-4DC6-8A5C-86AE3603D08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="346">
   <si>
     <t>column_name</t>
   </si>
@@ -457,9 +457,6 @@
     <t>gf_score</t>
   </si>
   <si>
-    <t>readability</t>
-  </si>
-  <si>
     <t>word_count</t>
   </si>
   <si>
@@ -536,9 +533,6 @@
   </si>
   <si>
     <t>Financial Statement Date</t>
-  </si>
-  <si>
-    <t>Readability</t>
   </si>
   <si>
     <t>Rating Date</t>
@@ -1432,11 +1426,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D11" sqref="D11"/>
+      <selection pane="topRight" activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1456,25 +1450,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1482,16 +1476,16 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1502,16 +1496,16 @@
         <v>126</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1519,19 +1513,19 @@
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1539,19 +1533,19 @@
         <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1559,19 +1553,19 @@
         <v>129</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1579,19 +1573,19 @@
         <v>130</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1599,19 +1593,19 @@
         <v>131</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1619,19 +1613,19 @@
         <v>132</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1639,211 +1633,211 @@
         <v>133</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1851,16 +1845,16 @@
         <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1871,13 +1865,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1888,13 +1882,13 @@
         <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1902,16 +1896,16 @@
         <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1919,16 +1913,16 @@
         <v>11</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1936,16 +1930,16 @@
         <v>14</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1956,13 +1950,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1973,13 +1967,13 @@
         <v>9</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1987,19 +1981,19 @@
         <v>18</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -2007,19 +2001,19 @@
         <v>19</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -2027,19 +2021,19 @@
         <v>20</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -2047,19 +2041,19 @@
         <v>21</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -2067,19 +2061,19 @@
         <v>22</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -2087,19 +2081,19 @@
         <v>23</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -2107,19 +2101,19 @@
         <v>24</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -2127,19 +2121,19 @@
         <v>25</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -2147,19 +2141,19 @@
         <v>26</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -2167,19 +2161,19 @@
         <v>27</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -2187,19 +2181,19 @@
         <v>28</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -2207,19 +2201,19 @@
         <v>29</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -2227,19 +2221,19 @@
         <v>30</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -2247,19 +2241,19 @@
         <v>31</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -2267,19 +2261,19 @@
         <v>32</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -2287,19 +2281,19 @@
         <v>33</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -2307,19 +2301,19 @@
         <v>34</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -2327,19 +2321,19 @@
         <v>35</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -2347,19 +2341,19 @@
         <v>36</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -2367,19 +2361,19 @@
         <v>37</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -2387,19 +2381,19 @@
         <v>38</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -2407,19 +2401,19 @@
         <v>39</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -2427,19 +2421,19 @@
         <v>40</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -2447,19 +2441,19 @@
         <v>41</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -2467,19 +2461,19 @@
         <v>42</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -2487,19 +2481,19 @@
         <v>43</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -2507,19 +2501,19 @@
         <v>44</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -2527,19 +2521,19 @@
         <v>45</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -2547,19 +2541,19 @@
         <v>46</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -2567,19 +2561,19 @@
         <v>47</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -2587,19 +2581,19 @@
         <v>48</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -2607,19 +2601,19 @@
         <v>49</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -2627,19 +2621,19 @@
         <v>50</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -2647,19 +2641,19 @@
         <v>51</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -2667,19 +2661,19 @@
         <v>52</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -2687,19 +2681,19 @@
         <v>53</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -2707,19 +2701,19 @@
         <v>54</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -2727,19 +2721,19 @@
         <v>55</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -2747,19 +2741,19 @@
         <v>56</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -2767,19 +2761,19 @@
         <v>57</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -2787,19 +2781,19 @@
         <v>58</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -2807,19 +2801,19 @@
         <v>59</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -2827,19 +2821,19 @@
         <v>60</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -2847,19 +2841,19 @@
         <v>61</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -2867,19 +2861,19 @@
         <v>62</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -2887,19 +2881,19 @@
         <v>63</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -2907,19 +2901,19 @@
         <v>64</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -2927,19 +2921,19 @@
         <v>65</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -2947,19 +2941,19 @@
         <v>66</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -2967,19 +2961,19 @@
         <v>67</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -2987,19 +2981,19 @@
         <v>68</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -3007,19 +3001,19 @@
         <v>69</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -3027,19 +3021,19 @@
         <v>70</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -3047,19 +3041,19 @@
         <v>71</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -3067,19 +3061,19 @@
         <v>72</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -3087,19 +3081,19 @@
         <v>73</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -3107,19 +3101,19 @@
         <v>74</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -3127,19 +3121,19 @@
         <v>75</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -3147,19 +3141,19 @@
         <v>76</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -3167,19 +3161,19 @@
         <v>77</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -3187,19 +3181,19 @@
         <v>78</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -3207,19 +3201,19 @@
         <v>79</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -3227,19 +3221,19 @@
         <v>80</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -3247,19 +3241,19 @@
         <v>81</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -3267,19 +3261,19 @@
         <v>82</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -3287,19 +3281,19 @@
         <v>83</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -3307,19 +3301,19 @@
         <v>84</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -3327,19 +3321,19 @@
         <v>85</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -3347,19 +3341,19 @@
         <v>86</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -3367,19 +3361,19 @@
         <v>87</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -3387,19 +3381,19 @@
         <v>88</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
@@ -3407,19 +3401,19 @@
         <v>89</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -3427,19 +3421,19 @@
         <v>90</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -3447,19 +3441,19 @@
         <v>91</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -3467,19 +3461,19 @@
         <v>92</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
@@ -3487,19 +3481,19 @@
         <v>93</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
@@ -3507,19 +3501,19 @@
         <v>94</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
@@ -3527,19 +3521,19 @@
         <v>95</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
@@ -3547,19 +3541,19 @@
         <v>96</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
@@ -3567,19 +3561,19 @@
         <v>97</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
@@ -3587,19 +3581,19 @@
         <v>98</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
@@ -3607,19 +3601,19 @@
         <v>99</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
@@ -3627,19 +3621,19 @@
         <v>100</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
@@ -3647,19 +3641,19 @@
         <v>101</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
@@ -3667,19 +3661,19 @@
         <v>102</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
@@ -3687,19 +3681,19 @@
         <v>103</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
@@ -3707,19 +3701,19 @@
         <v>104</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
@@ -3727,19 +3721,19 @@
         <v>105</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
@@ -3747,19 +3741,19 @@
         <v>106</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
@@ -3767,19 +3761,19 @@
         <v>107</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
@@ -3787,19 +3781,19 @@
         <v>108</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
@@ -3807,19 +3801,19 @@
         <v>109</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -3827,19 +3821,19 @@
         <v>110</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
@@ -3847,19 +3841,19 @@
         <v>111</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
@@ -3867,19 +3861,19 @@
         <v>112</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
@@ -3887,19 +3881,19 @@
         <v>113</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
@@ -3907,19 +3901,19 @@
         <v>114</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
@@ -3927,19 +3921,19 @@
         <v>115</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
@@ -3947,19 +3941,19 @@
         <v>116</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
@@ -3967,19 +3961,19 @@
         <v>117</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -3987,19 +3981,19 @@
         <v>118</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
@@ -4007,19 +4001,19 @@
         <v>119</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
@@ -4027,19 +4021,19 @@
         <v>120</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -4047,19 +4041,19 @@
         <v>121</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
@@ -4067,19 +4061,19 @@
         <v>122</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
@@ -4087,19 +4081,19 @@
         <v>123</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
@@ -4107,19 +4101,19 @@
         <v>124</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
@@ -4127,19 +4121,19 @@
         <v>135</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -4147,22 +4141,22 @@
         <v>125</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
@@ -4170,16 +4164,16 @@
         <v>1</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
@@ -4187,16 +4181,16 @@
         <v>2</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
@@ -4204,16 +4198,16 @@
         <v>3</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
@@ -4221,16 +4215,16 @@
         <v>12</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
@@ -4238,16 +4232,16 @@
         <v>13</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
@@ -4255,16 +4249,16 @@
         <v>15</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
@@ -4272,16 +4266,16 @@
         <v>16</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
@@ -4289,16 +4283,16 @@
         <v>142</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
@@ -4306,16 +4300,16 @@
         <v>143</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
@@ -4323,16 +4317,16 @@
         <v>144</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
@@ -4340,16 +4334,16 @@
         <v>145</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>181</v>
+        <v>294</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
@@ -4357,41 +4351,41 @@
         <v>146</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>309</v>
+        <v>138</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>316</v>
@@ -4399,156 +4393,139 @@
       <c r="D153" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="H153" s="2" t="s">
-        <v>343</v>
+      <c r="E153" s="2" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E155" s="2" t="s">
-        <v>325</v>
+      <c r="F155" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="H156" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>314</v>
+        <v>8</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>292</v>
+        <v>140</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>140</v>
+        <v>291</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>140</v>
+        <v>315</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="H159" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>293</v>
+        <v>162</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>341</v>
       </c>
     </row>
   </sheetData>

--- a/Variable Index.xlsx
+++ b/Variable Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijyli\repo\Stat-222-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FD74BF-EBB6-4DC6-8A5C-86AE3603D08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0D87F2-EF59-43E3-96C9-C3675FC4A526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1426,11 +1426,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C150" sqref="C150"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1443,9 +1443,10 @@
     <col min="6" max="6" width="26.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1470,8 +1471,9 @@
       <c r="H1" s="1" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>134</v>
       </c>
@@ -1488,7 +1490,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>126</v>
       </c>
@@ -1508,7 +1510,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>127</v>
       </c>
@@ -1528,7 +1530,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>128</v>
       </c>
@@ -1548,7 +1550,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>129</v>
       </c>
@@ -1568,7 +1570,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>130</v>
       </c>
@@ -1588,7 +1590,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>131</v>
       </c>
@@ -1608,7 +1610,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>132</v>
       </c>
@@ -1628,7 +1630,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>133</v>
       </c>
@@ -1648,7 +1650,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>147</v>
       </c>
@@ -1665,7 +1667,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>148</v>
       </c>
@@ -1682,7 +1684,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>149</v>
       </c>
@@ -1699,7 +1701,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>150</v>
       </c>
@@ -1716,7 +1718,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>151</v>
       </c>
@@ -1733,7 +1735,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>152</v>
       </c>

--- a/Variable Index.xlsx
+++ b/Variable Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijyli\repo\Stat-222-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0D87F2-EF59-43E3-96C9-C3675FC4A526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CAC264-AD24-4180-8DA7-668B22BC8F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="373">
   <si>
     <t>column_name</t>
   </si>
@@ -1061,6 +1061,87 @@
   </si>
   <si>
     <t>Rating Model 3</t>
+  </si>
+  <si>
+    <t>Change Model 1</t>
+  </si>
+  <si>
+    <t>Change Model 2</t>
+  </si>
+  <si>
+    <t>Change Model 3</t>
+  </si>
+  <si>
+    <t>Altman_Z_diff</t>
+  </si>
+  <si>
+    <t>Ratio_A_diff</t>
+  </si>
+  <si>
+    <t>Ratio_B_diff</t>
+  </si>
+  <si>
+    <t>Ratio_C_diff</t>
+  </si>
+  <si>
+    <t>Ratio_D_diff</t>
+  </si>
+  <si>
+    <t>Ratio_E_diff</t>
+  </si>
+  <si>
+    <t>grossProfitRatio_diff</t>
+  </si>
+  <si>
+    <t>ebitdaratio_diff</t>
+  </si>
+  <si>
+    <t>operatingIncomeRatio_diff</t>
+  </si>
+  <si>
+    <t>incomeBeforeTaxRatio_diff</t>
+  </si>
+  <si>
+    <t>netIncomeRatio_diff</t>
+  </si>
+  <si>
+    <t>Change Ratios</t>
+  </si>
+  <si>
+    <t>Difference in Altman's Z from prior fixed quarter</t>
+  </si>
+  <si>
+    <t>Difference in Ratio A from prior fixed quarter</t>
+  </si>
+  <si>
+    <t>Difference in Ratio B from prior fixed quarter</t>
+  </si>
+  <si>
+    <t>Difference in Ratio C from prior fixed quarter</t>
+  </si>
+  <si>
+    <t>Difference in Ratio D from prior fixed quarter</t>
+  </si>
+  <si>
+    <t>Difference in Ratio E from prior fixed quarter</t>
+  </si>
+  <si>
+    <t>Difference in Gross Profit Ratio from prior fixed quarter</t>
+  </si>
+  <si>
+    <t>Difference in Operating Income Ratio from prior fixed quarter</t>
+  </si>
+  <si>
+    <t>Difference in Income Before Tax Ratio from prior fixed quarter</t>
+  </si>
+  <si>
+    <t>Difference in Net Income Ratio from prior fixed quarter</t>
+  </si>
+  <si>
+    <t>Difference in EBITDA Ratio from prior fixed quarter</t>
+  </si>
+  <si>
+    <t>Primarily for changes models, but can be used in levels too</t>
   </si>
 </sst>
 </file>
@@ -1426,27 +1507,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I160"/>
+  <dimension ref="A1:K171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H8" sqref="H8"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.88671875" style="2" customWidth="1"/>
     <col min="5" max="5" width="64.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.77734375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1471,9 +1552,17 @@
       <c r="H1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>134</v>
       </c>
@@ -1489,8 +1578,11 @@
       <c r="F2" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I2" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>126</v>
       </c>
@@ -1509,8 +1601,14 @@
       <c r="H3" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>127</v>
       </c>
@@ -1529,8 +1627,14 @@
       <c r="H4" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>128</v>
       </c>
@@ -1549,8 +1653,14 @@
       <c r="H5" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>129</v>
       </c>
@@ -1569,8 +1679,14 @@
       <c r="H6" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>130</v>
       </c>
@@ -1589,8 +1705,14 @@
       <c r="H7" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>131</v>
       </c>
@@ -1609,8 +1731,14 @@
       <c r="H8" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>132</v>
       </c>
@@ -1629,8 +1757,14 @@
       <c r="H9" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>133</v>
       </c>
@@ -1649,8 +1783,14 @@
       <c r="H10" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>147</v>
       </c>
@@ -1666,8 +1806,11 @@
       <c r="H11" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K11" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>148</v>
       </c>
@@ -1683,8 +1826,11 @@
       <c r="H12" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K12" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>149</v>
       </c>
@@ -1700,8 +1846,11 @@
       <c r="H13" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K13" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>150</v>
       </c>
@@ -1717,8 +1866,11 @@
       <c r="H14" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K14" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>151</v>
       </c>
@@ -1734,8 +1886,11 @@
       <c r="H15" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K15" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>152</v>
       </c>
@@ -1751,8 +1906,11 @@
       <c r="H16" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K16" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>153</v>
       </c>
@@ -1768,8 +1926,11 @@
       <c r="H17" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K17" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>154</v>
       </c>
@@ -1785,8 +1946,11 @@
       <c r="H18" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K18" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>155</v>
       </c>
@@ -1800,7 +1964,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>156</v>
       </c>
@@ -1814,7 +1978,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>157</v>
       </c>
@@ -1828,7 +1992,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>158</v>
       </c>
@@ -1842,7 +2006,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -1859,7 +2023,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
@@ -1876,7 +2040,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
@@ -1893,7 +2057,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -1910,7 +2074,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
@@ -1927,7 +2091,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
@@ -1944,7 +2108,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
@@ -1961,7 +2125,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
@@ -1978,7 +2142,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>18</v>
       </c>
@@ -1997,8 +2161,14 @@
       <c r="H31" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J31" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>19</v>
       </c>
@@ -2017,8 +2187,14 @@
       <c r="H32" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J32" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>20</v>
       </c>
@@ -2037,8 +2213,14 @@
       <c r="H33" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J33" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -2057,8 +2239,14 @@
       <c r="H34" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J34" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
@@ -2077,8 +2265,14 @@
       <c r="H35" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J35" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>23</v>
       </c>
@@ -2097,8 +2291,14 @@
       <c r="H36" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J36" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>24</v>
       </c>
@@ -2117,8 +2317,14 @@
       <c r="H37" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J37" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>25</v>
       </c>
@@ -2137,8 +2343,14 @@
       <c r="H38" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J38" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>26</v>
       </c>
@@ -2157,8 +2369,14 @@
       <c r="H39" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J39" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>27</v>
       </c>
@@ -2177,8 +2395,14 @@
       <c r="H40" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J40" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>28</v>
       </c>
@@ -2197,8 +2421,14 @@
       <c r="H41" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J41" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>29</v>
       </c>
@@ -2217,8 +2447,14 @@
       <c r="H42" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J42" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>30</v>
       </c>
@@ -2237,8 +2473,14 @@
       <c r="H43" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J43" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>31</v>
       </c>
@@ -2257,8 +2499,14 @@
       <c r="H44" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J44" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>32</v>
       </c>
@@ -2277,8 +2525,14 @@
       <c r="H45" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J45" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>33</v>
       </c>
@@ -2297,8 +2551,14 @@
       <c r="H46" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J46" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>34</v>
       </c>
@@ -2317,8 +2577,14 @@
       <c r="H47" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J47" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>35</v>
       </c>
@@ -2337,8 +2603,14 @@
       <c r="H48" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J48" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>36</v>
       </c>
@@ -2357,8 +2629,14 @@
       <c r="H49" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J49" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>37</v>
       </c>
@@ -2377,8 +2655,14 @@
       <c r="H50" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J50" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>38</v>
       </c>
@@ -2397,8 +2681,14 @@
       <c r="H51" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J51" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>39</v>
       </c>
@@ -2417,8 +2707,14 @@
       <c r="H52" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J52" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>40</v>
       </c>
@@ -2437,8 +2733,14 @@
       <c r="H53" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J53" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>41</v>
       </c>
@@ -2457,8 +2759,14 @@
       <c r="H54" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J54" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2785,14 @@
       <c r="H55" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J55" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>43</v>
       </c>
@@ -2497,8 +2811,14 @@
       <c r="H56" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J56" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>44</v>
       </c>
@@ -2517,8 +2837,14 @@
       <c r="H57" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J57" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>45</v>
       </c>
@@ -2537,8 +2863,14 @@
       <c r="H58" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J58" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>46</v>
       </c>
@@ -2557,8 +2889,14 @@
       <c r="H59" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J59" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>47</v>
       </c>
@@ -2577,8 +2915,14 @@
       <c r="H60" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J60" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>48</v>
       </c>
@@ -2597,8 +2941,14 @@
       <c r="H61" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J61" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>49</v>
       </c>
@@ -2617,8 +2967,14 @@
       <c r="H62" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J62" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>50</v>
       </c>
@@ -2637,8 +2993,14 @@
       <c r="H63" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J63" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>51</v>
       </c>
@@ -2657,8 +3019,14 @@
       <c r="H64" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J64" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>52</v>
       </c>
@@ -2677,8 +3045,14 @@
       <c r="H65" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J65" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>53</v>
       </c>
@@ -2697,8 +3071,14 @@
       <c r="H66" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J66" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>54</v>
       </c>
@@ -2717,8 +3097,14 @@
       <c r="H67" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J67" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>55</v>
       </c>
@@ -2737,8 +3123,14 @@
       <c r="H68" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J68" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>56</v>
       </c>
@@ -2757,8 +3149,14 @@
       <c r="H69" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J69" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>57</v>
       </c>
@@ -2777,8 +3175,14 @@
       <c r="H70" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J70" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>58</v>
       </c>
@@ -2797,8 +3201,14 @@
       <c r="H71" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J71" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>59</v>
       </c>
@@ -2817,8 +3227,14 @@
       <c r="H72" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J72" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>60</v>
       </c>
@@ -2837,8 +3253,14 @@
       <c r="H73" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J73" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>61</v>
       </c>
@@ -2857,8 +3279,14 @@
       <c r="H74" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J74" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>62</v>
       </c>
@@ -2877,8 +3305,14 @@
       <c r="H75" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J75" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>63</v>
       </c>
@@ -2897,8 +3331,14 @@
       <c r="H76" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J76" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>64</v>
       </c>
@@ -2917,8 +3357,14 @@
       <c r="H77" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J77" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>65</v>
       </c>
@@ -2937,8 +3383,14 @@
       <c r="H78" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J78" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>66</v>
       </c>
@@ -2957,8 +3409,14 @@
       <c r="H79" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J79" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>67</v>
       </c>
@@ -2977,8 +3435,14 @@
       <c r="H80" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J80" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>68</v>
       </c>
@@ -2997,8 +3461,14 @@
       <c r="H81" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J81" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>69</v>
       </c>
@@ -3017,8 +3487,14 @@
       <c r="H82" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J82" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>70</v>
       </c>
@@ -3037,8 +3513,14 @@
       <c r="H83" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J83" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>71</v>
       </c>
@@ -3057,8 +3539,14 @@
       <c r="H84" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J84" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>72</v>
       </c>
@@ -3077,8 +3565,14 @@
       <c r="H85" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J85" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>73</v>
       </c>
@@ -3097,8 +3591,14 @@
       <c r="H86" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J86" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>74</v>
       </c>
@@ -3117,8 +3617,14 @@
       <c r="H87" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J87" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>75</v>
       </c>
@@ -3137,8 +3643,14 @@
       <c r="H88" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J88" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>76</v>
       </c>
@@ -3157,8 +3669,14 @@
       <c r="H89" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J89" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>77</v>
       </c>
@@ -3177,8 +3695,14 @@
       <c r="H90" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J90" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>78</v>
       </c>
@@ -3197,8 +3721,14 @@
       <c r="H91" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J91" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>79</v>
       </c>
@@ -3217,8 +3747,14 @@
       <c r="H92" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J92" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>80</v>
       </c>
@@ -3237,8 +3773,14 @@
       <c r="H93" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J93" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>81</v>
       </c>
@@ -3257,8 +3799,14 @@
       <c r="H94" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J94" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>82</v>
       </c>
@@ -3277,8 +3825,14 @@
       <c r="H95" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J95" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>83</v>
       </c>
@@ -3297,8 +3851,14 @@
       <c r="H96" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J96" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>84</v>
       </c>
@@ -3317,8 +3877,14 @@
       <c r="H97" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J97" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>85</v>
       </c>
@@ -3337,8 +3903,14 @@
       <c r="H98" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J98" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>86</v>
       </c>
@@ -3357,8 +3929,14 @@
       <c r="H99" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J99" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>87</v>
       </c>
@@ -3377,8 +3955,14 @@
       <c r="H100" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J100" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>88</v>
       </c>
@@ -3397,8 +3981,14 @@
       <c r="H101" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J101" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>89</v>
       </c>
@@ -3417,8 +4007,14 @@
       <c r="H102" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J102" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>90</v>
       </c>
@@ -3437,8 +4033,14 @@
       <c r="H103" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J103" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>91</v>
       </c>
@@ -3457,8 +4059,14 @@
       <c r="H104" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J104" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>92</v>
       </c>
@@ -3477,8 +4085,14 @@
       <c r="H105" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J105" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>93</v>
       </c>
@@ -3497,8 +4111,14 @@
       <c r="H106" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J106" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>94</v>
       </c>
@@ -3517,8 +4137,14 @@
       <c r="H107" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J107" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>95</v>
       </c>
@@ -3537,8 +4163,14 @@
       <c r="H108" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J108" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>96</v>
       </c>
@@ -3557,8 +4189,14 @@
       <c r="H109" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J109" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>97</v>
       </c>
@@ -3577,8 +4215,14 @@
       <c r="H110" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J110" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>98</v>
       </c>
@@ -3597,8 +4241,14 @@
       <c r="H111" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J111" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>99</v>
       </c>
@@ -3617,8 +4267,14 @@
       <c r="H112" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J112" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>100</v>
       </c>
@@ -3637,8 +4293,14 @@
       <c r="H113" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J113" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>101</v>
       </c>
@@ -3657,8 +4319,14 @@
       <c r="H114" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J114" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>102</v>
       </c>
@@ -3677,8 +4345,14 @@
       <c r="H115" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J115" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>103</v>
       </c>
@@ -3697,8 +4371,14 @@
       <c r="H116" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J116" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K116" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>104</v>
       </c>
@@ -3717,8 +4397,14 @@
       <c r="H117" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J117" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>105</v>
       </c>
@@ -3737,8 +4423,14 @@
       <c r="H118" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J118" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>106</v>
       </c>
@@ -3757,8 +4449,14 @@
       <c r="H119" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J119" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>107</v>
       </c>
@@ -3777,8 +4475,14 @@
       <c r="H120" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J120" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>108</v>
       </c>
@@ -3797,8 +4501,14 @@
       <c r="H121" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J121" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>109</v>
       </c>
@@ -3817,8 +4527,14 @@
       <c r="H122" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J122" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>110</v>
       </c>
@@ -3837,8 +4553,14 @@
       <c r="H123" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J123" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>111</v>
       </c>
@@ -3857,8 +4579,14 @@
       <c r="H124" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J124" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>112</v>
       </c>
@@ -3877,8 +4605,14 @@
       <c r="H125" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J125" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>113</v>
       </c>
@@ -3897,8 +4631,14 @@
       <c r="H126" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J126" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>114</v>
       </c>
@@ -3917,8 +4657,14 @@
       <c r="H127" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J127" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>115</v>
       </c>
@@ -3937,8 +4683,14 @@
       <c r="H128" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J128" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>116</v>
       </c>
@@ -3957,8 +4709,14 @@
       <c r="H129" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J129" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>117</v>
       </c>
@@ -3977,8 +4735,14 @@
       <c r="H130" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J130" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>118</v>
       </c>
@@ -3997,8 +4761,14 @@
       <c r="H131" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J131" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>119</v>
       </c>
@@ -4017,8 +4787,14 @@
       <c r="H132" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J132" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>120</v>
       </c>
@@ -4037,8 +4813,14 @@
       <c r="H133" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J133" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K133" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>121</v>
       </c>
@@ -4057,8 +4839,14 @@
       <c r="H134" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J134" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K134" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>122</v>
       </c>
@@ -4077,8 +4865,14 @@
       <c r="H135" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J135" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K135" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>123</v>
       </c>
@@ -4097,8 +4891,14 @@
       <c r="H136" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J136" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>124</v>
       </c>
@@ -4117,8 +4917,14 @@
       <c r="H137" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J137" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>135</v>
       </c>
@@ -4137,8 +4943,14 @@
       <c r="H138" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J138" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>125</v>
       </c>
@@ -4160,8 +4972,14 @@
       <c r="H139" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J139" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>1</v>
       </c>
@@ -4178,7 +4996,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>2</v>
       </c>
@@ -4195,7 +5013,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>3</v>
       </c>
@@ -4212,7 +5030,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>12</v>
       </c>
@@ -4229,7 +5047,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>13</v>
       </c>
@@ -4246,7 +5064,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>15</v>
       </c>
@@ -4263,7 +5081,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>16</v>
       </c>
@@ -4280,7 +5098,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>142</v>
       </c>
@@ -4296,8 +5114,11 @@
       <c r="H147" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K147" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>143</v>
       </c>
@@ -4313,8 +5134,11 @@
       <c r="H148" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K148" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>144</v>
       </c>
@@ -4330,8 +5154,11 @@
       <c r="H149" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K149" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>145</v>
       </c>
@@ -4347,8 +5174,11 @@
       <c r="H150" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K150" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>146</v>
       </c>
@@ -4364,8 +5194,11 @@
       <c r="H151" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K151" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>159</v>
       </c>
@@ -4381,8 +5214,11 @@
       <c r="H152" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K152" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>138</v>
       </c>
@@ -4398,8 +5234,17 @@
       <c r="E153" s="2" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I153" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="K153" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>139</v>
       </c>
@@ -4416,7 +5261,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>4</v>
       </c>
@@ -4439,7 +5284,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>137</v>
       </c>
@@ -4456,7 +5301,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>136</v>
       </c>
@@ -4482,7 +5327,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>140</v>
       </c>
@@ -4502,7 +5347,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>141</v>
       </c>
@@ -4516,7 +5361,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>17</v>
       </c>
@@ -4528,6 +5373,256 @@
       </c>
       <c r="D160" s="2" t="s">
         <v>339</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K162" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="J163" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K163" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="J164" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K164" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="J165" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K165" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="J166" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K166" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="J167" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K167" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="J168" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K168" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="J169" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K169" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="J170" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K170" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="J171" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K171" s="2" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>

--- a/Variable Index.xlsx
+++ b/Variable Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijyli\repo\Stat-222-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CAC264-AD24-4180-8DA7-668B22BC8F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0157FCE5-43F2-4DCD-80AD-B6BCBA6DA1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="379">
   <si>
     <t>column_name</t>
   </si>
@@ -1142,6 +1142,24 @@
   </si>
   <si>
     <t>Primarily for changes models, but can be used in levels too</t>
+  </si>
+  <si>
+    <t>num_q_by_len</t>
+  </si>
+  <si>
+    <t>Number of Questions Divided By Call Word Count</t>
+  </si>
+  <si>
+    <t>pos_score_finbert</t>
+  </si>
+  <si>
+    <t>FinBERT Positivity Score</t>
+  </si>
+  <si>
+    <t>Could replace old positivity score but not going to since diff methodology</t>
+  </si>
+  <si>
+    <t>Replaces old questions variable, less colinear with word count</t>
   </si>
 </sst>
 </file>
@@ -1507,11 +1525,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K171"/>
+  <dimension ref="A1:K173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J12" sqref="J12"/>
+      <selection pane="topRight" activeCell="E160" sqref="E160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5171,12 +5189,7 @@
       <c r="D150" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="H150" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K150" s="2" t="s">
-        <v>341</v>
-      </c>
+      <c r="H150" s="2"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
@@ -5220,210 +5233,215 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>138</v>
+        <v>373</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>138</v>
+        <v>374</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="I153" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="J153" s="2" t="s">
-        <v>342</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="J153"/>
       <c r="K153" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>139</v>
+        <v>375</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>139</v>
+        <v>376</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>335</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>323</v>
+        <v>377</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="J154"/>
+      <c r="K154" s="2" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="F155" s="2" t="s">
+      <c r="E155" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I155" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="G155" s="2" t="s">
+      <c r="J155" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="H155" s="2" t="s">
+      <c r="K155" s="2" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>136</v>
+        <v>4</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>290</v>
+        <v>4</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>8</v>
+        <v>312</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E157" s="2" t="s">
-        <v>327</v>
-      </c>
       <c r="F157" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>140</v>
+        <v>312</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="G158" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>341</v>
+      <c r="E158" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>315</v>
+        <v>8</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>337</v>
       </c>
+      <c r="F159" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>311</v>
+        <v>140</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>349</v>
+        <v>141</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>361</v>
+        <v>291</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="I161" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>350</v>
+        <v>17</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>362</v>
+        <v>162</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="J162" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K162" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>360</v>
@@ -5434,19 +5452,16 @@
       <c r="E163" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="J163" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K163" s="2" t="s">
+      <c r="I163" s="2" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>360</v>
@@ -5466,10 +5481,10 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>360</v>
@@ -5489,10 +5504,10 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>360</v>
@@ -5512,10 +5527,10 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>360</v>
@@ -5535,10 +5550,10 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>360</v>
@@ -5558,10 +5573,10 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>360</v>
@@ -5581,10 +5596,10 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>360</v>
@@ -5604,10 +5619,10 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>360</v>
@@ -5622,6 +5637,52 @@
         <v>341</v>
       </c>
       <c r="K171" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="J172" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K172" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="J173" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K173" s="2" t="s">
         <v>341</v>
       </c>
     </row>

--- a/Variable Index.xlsx
+++ b/Variable Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijyli\repo\Stat-222-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0157FCE5-43F2-4DCD-80AD-B6BCBA6DA1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7B6BB1-8478-417B-AEB5-D2D81A91564C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="380">
   <si>
     <t>column_name</t>
   </si>
@@ -1160,6 +1160,9 @@
   </si>
   <si>
     <t>Replaces old questions variable, less colinear with word count</t>
+  </si>
+  <si>
+    <t>Ratio?</t>
   </si>
 </sst>
 </file>
@@ -1525,11 +1528,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K173"/>
+  <dimension ref="A1:L173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E160" sqref="E160"/>
+      <selection pane="topRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1538,14 +1541,15 @@
     <col min="2" max="2" width="52.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="64.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="14.77734375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1559,28 +1563,31 @@
         <v>334</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>134</v>
       </c>
@@ -1593,14 +1600,17 @@
       <c r="D2" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E2" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>126</v>
       </c>
@@ -1613,20 +1623,20 @@
       <c r="D3" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H3" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>127</v>
       </c>
@@ -1639,20 +1649,20 @@
       <c r="D4" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H4" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>128</v>
       </c>
@@ -1665,20 +1675,20 @@
       <c r="D5" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H5" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>129</v>
       </c>
@@ -1691,20 +1701,23 @@
       <c r="D6" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>341</v>
+      <c r="E6" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>130</v>
       </c>
@@ -1717,20 +1730,23 @@
       <c r="D7" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>341</v>
+      <c r="E7" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>131</v>
       </c>
@@ -1743,20 +1759,23 @@
       <c r="D8" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>341</v>
+      <c r="E8" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>132</v>
       </c>
@@ -1769,20 +1788,23 @@
       <c r="D9" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>341</v>
+      <c r="E9" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>133</v>
       </c>
@@ -1795,20 +1817,23 @@
       <c r="D10" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>341</v>
+      <c r="E10" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>147</v>
       </c>
@@ -1821,14 +1846,14 @@
       <c r="D11" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I11" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>148</v>
       </c>
@@ -1841,14 +1866,14 @@
       <c r="D12" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I12" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>149</v>
       </c>
@@ -1861,14 +1886,14 @@
       <c r="D13" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I13" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>150</v>
       </c>
@@ -1881,14 +1906,14 @@
       <c r="D14" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I14" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>151</v>
       </c>
@@ -1901,14 +1926,14 @@
       <c r="D15" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I15" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>152</v>
       </c>
@@ -1921,14 +1946,14 @@
       <c r="D16" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I16" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>153</v>
       </c>
@@ -1941,14 +1966,14 @@
       <c r="D17" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I17" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>154</v>
       </c>
@@ -1961,14 +1986,14 @@
       <c r="D18" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I18" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>155</v>
       </c>
@@ -1982,7 +2007,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>156</v>
       </c>
@@ -1996,7 +2021,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>157</v>
       </c>
@@ -2010,7 +2035,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>158</v>
       </c>
@@ -2024,7 +2049,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -2037,11 +2062,11 @@
       <c r="D23" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
@@ -2054,11 +2079,11 @@
       <c r="D24" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
@@ -2071,11 +2096,11 @@
       <c r="D25" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -2088,11 +2113,11 @@
       <c r="D26" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
@@ -2105,11 +2130,11 @@
       <c r="D27" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
@@ -2122,11 +2147,11 @@
       <c r="D28" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
@@ -2139,11 +2164,11 @@
       <c r="D29" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
@@ -2156,11 +2181,11 @@
       <c r="D30" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>18</v>
       </c>
@@ -2173,20 +2198,20 @@
       <c r="D31" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H31" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L31" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>19</v>
       </c>
@@ -2199,20 +2224,20 @@
       <c r="D32" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H32" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>20</v>
       </c>
@@ -2225,20 +2250,20 @@
       <c r="D33" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H33" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -2251,20 +2276,20 @@
       <c r="D34" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H34" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
@@ -2277,20 +2302,20 @@
       <c r="D35" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H35" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>23</v>
       </c>
@@ -2303,20 +2328,20 @@
       <c r="D36" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H36" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L36" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>24</v>
       </c>
@@ -2329,20 +2354,20 @@
       <c r="D37" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H37" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L37" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>25</v>
       </c>
@@ -2355,20 +2380,20 @@
       <c r="D38" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>26</v>
       </c>
@@ -2381,20 +2406,20 @@
       <c r="D39" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H39" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>27</v>
       </c>
@@ -2407,20 +2432,20 @@
       <c r="D40" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H40" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>28</v>
       </c>
@@ -2433,20 +2458,20 @@
       <c r="D41" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H41" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="I41" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>29</v>
       </c>
@@ -2459,20 +2484,20 @@
       <c r="D42" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H42" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="I42" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>30</v>
       </c>
@@ -2485,20 +2510,20 @@
       <c r="D43" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H43" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>31</v>
       </c>
@@ -2511,20 +2536,20 @@
       <c r="D44" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H44" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="I44" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>32</v>
       </c>
@@ -2537,20 +2562,20 @@
       <c r="D45" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H45" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="I45" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>33</v>
       </c>
@@ -2563,20 +2588,20 @@
       <c r="D46" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H46" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="I46" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>34</v>
       </c>
@@ -2589,20 +2614,20 @@
       <c r="D47" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H47" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="I47" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>35</v>
       </c>
@@ -2615,20 +2640,20 @@
       <c r="D48" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H48" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="I48" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>36</v>
       </c>
@@ -2641,20 +2666,20 @@
       <c r="D49" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H49" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>37</v>
       </c>
@@ -2667,20 +2692,20 @@
       <c r="D50" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H50" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="I50" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L50" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>38</v>
       </c>
@@ -2693,20 +2718,20 @@
       <c r="D51" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H51" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="I51" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L51" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>39</v>
       </c>
@@ -2719,20 +2744,20 @@
       <c r="D52" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H52" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="I52" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>40</v>
       </c>
@@ -2745,20 +2770,20 @@
       <c r="D53" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H53" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="I53" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L53" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>41</v>
       </c>
@@ -2771,20 +2796,20 @@
       <c r="D54" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H54" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="I54" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>42</v>
       </c>
@@ -2797,20 +2822,20 @@
       <c r="D55" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H55" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="I55" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>43</v>
       </c>
@@ -2823,20 +2848,20 @@
       <c r="D56" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H56" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="I56" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>44</v>
       </c>
@@ -2849,20 +2874,20 @@
       <c r="D57" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H57" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="I57" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>45</v>
       </c>
@@ -2875,20 +2900,20 @@
       <c r="D58" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H58" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="I58" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>46</v>
       </c>
@@ -2901,20 +2926,20 @@
       <c r="D59" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H59" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="I59" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>47</v>
       </c>
@@ -2927,20 +2952,20 @@
       <c r="D60" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H60" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="I60" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>48</v>
       </c>
@@ -2953,20 +2978,20 @@
       <c r="D61" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H61" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="I61" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>49</v>
       </c>
@@ -2979,20 +3004,20 @@
       <c r="D62" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H62" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="I62" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>50</v>
       </c>
@@ -3005,20 +3030,20 @@
       <c r="D63" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H63" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J63" s="2" t="s">
+      <c r="I63" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L63" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>51</v>
       </c>
@@ -3031,20 +3056,20 @@
       <c r="D64" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H64" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="I64" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L64" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>52</v>
       </c>
@@ -3057,20 +3082,20 @@
       <c r="D65" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H65" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="I65" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L65" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>53</v>
       </c>
@@ -3083,20 +3108,20 @@
       <c r="D66" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H66" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="I66" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>54</v>
       </c>
@@ -3109,20 +3134,20 @@
       <c r="D67" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H67" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J67" s="2" t="s">
+      <c r="I67" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>55</v>
       </c>
@@ -3135,20 +3160,20 @@
       <c r="D68" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G68" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H68" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J68" s="2" t="s">
+      <c r="I68" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L68" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>56</v>
       </c>
@@ -3161,20 +3186,20 @@
       <c r="D69" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H69" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="I69" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L69" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>57</v>
       </c>
@@ -3187,20 +3212,20 @@
       <c r="D70" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G70" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H70" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="I70" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L70" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>58</v>
       </c>
@@ -3213,20 +3238,20 @@
       <c r="D71" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H71" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J71" s="2" t="s">
+      <c r="I71" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L71" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>59</v>
       </c>
@@ -3239,20 +3264,20 @@
       <c r="D72" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H72" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J72" s="2" t="s">
+      <c r="I72" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>60</v>
       </c>
@@ -3265,20 +3290,20 @@
       <c r="D73" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H73" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J73" s="2" t="s">
+      <c r="I73" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L73" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>61</v>
       </c>
@@ -3291,20 +3316,20 @@
       <c r="D74" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G74" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H74" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="I74" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L74" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>62</v>
       </c>
@@ -3317,20 +3342,20 @@
       <c r="D75" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G75" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H75" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J75" s="2" t="s">
+      <c r="I75" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L75" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>63</v>
       </c>
@@ -3343,20 +3368,20 @@
       <c r="D76" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G76" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H76" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J76" s="2" t="s">
+      <c r="I76" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>64</v>
       </c>
@@ -3369,20 +3394,20 @@
       <c r="D77" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="G77" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H77" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J77" s="2" t="s">
+      <c r="I77" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L77" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>65</v>
       </c>
@@ -3395,20 +3420,20 @@
       <c r="D78" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G78" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H78" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J78" s="2" t="s">
+      <c r="I78" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L78" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>66</v>
       </c>
@@ -3421,20 +3446,20 @@
       <c r="D79" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G79" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H79" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J79" s="2" t="s">
+      <c r="I79" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L79" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>67</v>
       </c>
@@ -3447,20 +3472,20 @@
       <c r="D80" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J80" s="2" t="s">
+      <c r="I80" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>68</v>
       </c>
@@ -3473,20 +3498,20 @@
       <c r="D81" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G81" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H81" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J81" s="2" t="s">
+      <c r="I81" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>69</v>
       </c>
@@ -3499,20 +3524,20 @@
       <c r="D82" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G82" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H82" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J82" s="2" t="s">
+      <c r="I82" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>70</v>
       </c>
@@ -3525,20 +3550,20 @@
       <c r="D83" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G83" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H83" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J83" s="2" t="s">
+      <c r="I83" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>71</v>
       </c>
@@ -3551,20 +3576,20 @@
       <c r="D84" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G84" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H84" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J84" s="2" t="s">
+      <c r="I84" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L84" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>72</v>
       </c>
@@ -3577,20 +3602,20 @@
       <c r="D85" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G85" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H85" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J85" s="2" t="s">
+      <c r="I85" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L85" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>73</v>
       </c>
@@ -3603,20 +3628,20 @@
       <c r="D86" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G86" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H86" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J86" s="2" t="s">
+      <c r="I86" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L86" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>74</v>
       </c>
@@ -3629,20 +3654,20 @@
       <c r="D87" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G87" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H87" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J87" s="2" t="s">
+      <c r="I87" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L87" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>75</v>
       </c>
@@ -3655,20 +3680,20 @@
       <c r="D88" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G88" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H88" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J88" s="2" t="s">
+      <c r="I88" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L88" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>76</v>
       </c>
@@ -3681,20 +3706,20 @@
       <c r="D89" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G89" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H89" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J89" s="2" t="s">
+      <c r="I89" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>77</v>
       </c>
@@ -3707,20 +3732,20 @@
       <c r="D90" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G90" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H90" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J90" s="2" t="s">
+      <c r="I90" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>78</v>
       </c>
@@ -3733,20 +3758,20 @@
       <c r="D91" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G91" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H91" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J91" s="2" t="s">
+      <c r="I91" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>79</v>
       </c>
@@ -3759,20 +3784,20 @@
       <c r="D92" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G92" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H92" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J92" s="2" t="s">
+      <c r="I92" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L92" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>80</v>
       </c>
@@ -3785,20 +3810,20 @@
       <c r="D93" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G93" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H93" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J93" s="2" t="s">
+      <c r="I93" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L93" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>81</v>
       </c>
@@ -3811,20 +3836,20 @@
       <c r="D94" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G94" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H94" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J94" s="2" t="s">
+      <c r="I94" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>82</v>
       </c>
@@ -3837,20 +3862,20 @@
       <c r="D95" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G95" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H95" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J95" s="2" t="s">
+      <c r="I95" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>83</v>
       </c>
@@ -3863,20 +3888,20 @@
       <c r="D96" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G96" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H96" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J96" s="2" t="s">
+      <c r="I96" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>84</v>
       </c>
@@ -3889,20 +3914,20 @@
       <c r="D97" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G97" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H97" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J97" s="2" t="s">
+      <c r="I97" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L97" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>85</v>
       </c>
@@ -3915,20 +3940,20 @@
       <c r="D98" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G98" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H98" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J98" s="2" t="s">
+      <c r="I98" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L98" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>86</v>
       </c>
@@ -3941,20 +3966,20 @@
       <c r="D99" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G99" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H99" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J99" s="2" t="s">
+      <c r="I99" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L99" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>87</v>
       </c>
@@ -3967,20 +3992,20 @@
       <c r="D100" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G100" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H100" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J100" s="2" t="s">
+      <c r="I100" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>88</v>
       </c>
@@ -3993,20 +4018,20 @@
       <c r="D101" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G101" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H101" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J101" s="2" t="s">
+      <c r="I101" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>89</v>
       </c>
@@ -4019,20 +4044,20 @@
       <c r="D102" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G102" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H102" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J102" s="2" t="s">
+      <c r="I102" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L102" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>90</v>
       </c>
@@ -4045,20 +4070,20 @@
       <c r="D103" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G103" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H103" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J103" s="2" t="s">
+      <c r="I103" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K103" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L103" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>91</v>
       </c>
@@ -4071,20 +4096,20 @@
       <c r="D104" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G104" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H104" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J104" s="2" t="s">
+      <c r="I104" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L104" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>92</v>
       </c>
@@ -4097,20 +4122,20 @@
       <c r="D105" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G105" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H105" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J105" s="2" t="s">
+      <c r="I105" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L105" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>93</v>
       </c>
@@ -4123,20 +4148,20 @@
       <c r="D106" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G106" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H106" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J106" s="2" t="s">
+      <c r="I106" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L106" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>94</v>
       </c>
@@ -4149,20 +4174,20 @@
       <c r="D107" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G107" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H107" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J107" s="2" t="s">
+      <c r="I107" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L107" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>95</v>
       </c>
@@ -4175,20 +4200,20 @@
       <c r="D108" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="G108" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H108" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J108" s="2" t="s">
+      <c r="I108" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L108" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>96</v>
       </c>
@@ -4201,20 +4226,20 @@
       <c r="D109" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G109" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H109" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J109" s="2" t="s">
+      <c r="I109" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L109" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>97</v>
       </c>
@@ -4227,20 +4252,20 @@
       <c r="D110" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G110" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H110" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J110" s="2" t="s">
+      <c r="I110" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L110" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>98</v>
       </c>
@@ -4253,20 +4278,20 @@
       <c r="D111" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G111" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H111" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J111" s="2" t="s">
+      <c r="I111" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K111" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L111" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>99</v>
       </c>
@@ -4279,20 +4304,23 @@
       <c r="D112" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G112" s="2" t="s">
-        <v>341</v>
+      <c r="E112" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J112" s="2" t="s">
+      <c r="I112" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K112" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L112" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>100</v>
       </c>
@@ -4305,20 +4333,20 @@
       <c r="D113" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G113" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H113" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J113" s="2" t="s">
+      <c r="I113" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K113" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L113" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>101</v>
       </c>
@@ -4331,20 +4359,20 @@
       <c r="D114" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G114" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H114" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J114" s="2" t="s">
+      <c r="I114" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K114" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L114" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>102</v>
       </c>
@@ -4357,20 +4385,20 @@
       <c r="D115" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G115" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H115" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J115" s="2" t="s">
+      <c r="I115" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K115" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L115" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>103</v>
       </c>
@@ -4383,20 +4411,20 @@
       <c r="D116" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G116" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H116" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J116" s="2" t="s">
+      <c r="I116" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K116" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L116" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>104</v>
       </c>
@@ -4409,20 +4437,20 @@
       <c r="D117" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G117" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H117" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J117" s="2" t="s">
+      <c r="I117" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K117" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L117" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>105</v>
       </c>
@@ -4435,20 +4463,20 @@
       <c r="D118" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G118" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H118" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J118" s="2" t="s">
+      <c r="I118" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K118" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L118" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>106</v>
       </c>
@@ -4461,20 +4489,20 @@
       <c r="D119" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G119" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H119" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J119" s="2" t="s">
+      <c r="I119" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K119" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L119" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>107</v>
       </c>
@@ -4487,20 +4515,20 @@
       <c r="D120" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G120" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H120" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J120" s="2" t="s">
+      <c r="I120" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K120" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L120" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>108</v>
       </c>
@@ -4513,20 +4541,20 @@
       <c r="D121" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G121" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H121" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J121" s="2" t="s">
+      <c r="I121" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K121" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L121" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>109</v>
       </c>
@@ -4539,20 +4567,20 @@
       <c r="D122" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G122" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H122" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J122" s="2" t="s">
+      <c r="I122" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L122" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>110</v>
       </c>
@@ -4565,20 +4593,20 @@
       <c r="D123" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G123" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H123" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J123" s="2" t="s">
+      <c r="I123" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K123" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L123" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>111</v>
       </c>
@@ -4591,20 +4619,23 @@
       <c r="D124" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G124" s="2" t="s">
-        <v>341</v>
+      <c r="E124" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J124" s="2" t="s">
+      <c r="I124" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K124" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L124" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>112</v>
       </c>
@@ -4617,20 +4648,20 @@
       <c r="D125" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G125" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H125" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J125" s="2" t="s">
+      <c r="I125" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K125" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L125" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>113</v>
       </c>
@@ -4643,20 +4674,23 @@
       <c r="D126" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G126" s="2" t="s">
-        <v>341</v>
+      <c r="E126" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J126" s="2" t="s">
+      <c r="I126" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K126" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L126" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>114</v>
       </c>
@@ -4669,20 +4703,20 @@
       <c r="D127" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G127" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H127" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J127" s="2" t="s">
+      <c r="I127" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K127" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L127" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>115</v>
       </c>
@@ -4695,20 +4729,20 @@
       <c r="D128" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G128" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H128" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J128" s="2" t="s">
+      <c r="I128" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K128" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L128" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>116</v>
       </c>
@@ -4721,20 +4755,23 @@
       <c r="D129" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G129" s="2" t="s">
-        <v>341</v>
+      <c r="E129" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J129" s="2" t="s">
+      <c r="I129" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K129" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L129" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>117</v>
       </c>
@@ -4747,20 +4784,20 @@
       <c r="D130" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G130" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H130" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J130" s="2" t="s">
+      <c r="I130" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K130" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L130" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>118</v>
       </c>
@@ -4773,20 +4810,20 @@
       <c r="D131" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G131" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H131" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J131" s="2" t="s">
+      <c r="I131" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K131" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L131" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>119</v>
       </c>
@@ -4799,20 +4836,23 @@
       <c r="D132" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G132" s="2" t="s">
-        <v>341</v>
+      <c r="E132" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J132" s="2" t="s">
+      <c r="I132" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K132" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L132" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>120</v>
       </c>
@@ -4825,20 +4865,20 @@
       <c r="D133" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G133" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H133" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J133" s="2" t="s">
+      <c r="I133" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K133" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L133" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>121</v>
       </c>
@@ -4851,20 +4891,20 @@
       <c r="D134" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G134" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H134" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J134" s="2" t="s">
+      <c r="I134" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K134" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L134" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>122</v>
       </c>
@@ -4877,20 +4917,20 @@
       <c r="D135" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G135" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H135" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J135" s="2" t="s">
+      <c r="I135" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K135" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L135" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>123</v>
       </c>
@@ -4903,20 +4943,20 @@
       <c r="D136" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G136" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H136" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J136" s="2" t="s">
+      <c r="I136" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K136" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L136" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>124</v>
       </c>
@@ -4929,20 +4969,20 @@
       <c r="D137" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="G137" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H137" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J137" s="2" t="s">
+      <c r="I137" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K137" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L137" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>135</v>
       </c>
@@ -4955,20 +4995,20 @@
       <c r="D138" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="G138" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H138" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J138" s="2" t="s">
+      <c r="I138" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K138" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L138" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>125</v>
       </c>
@@ -4981,23 +5021,23 @@
       <c r="D139" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="F139" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="G139" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H139" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J139" s="2" t="s">
+      <c r="I139" s="2" t="s">
         <v>341</v>
       </c>
       <c r="K139" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L139" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>1</v>
       </c>
@@ -5010,11 +5050,11 @@
       <c r="D140" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E140" s="2" t="s">
+      <c r="F140" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>2</v>
       </c>
@@ -5027,11 +5067,11 @@
       <c r="D141" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="F141" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>3</v>
       </c>
@@ -5044,11 +5084,11 @@
       <c r="D142" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="F142" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>12</v>
       </c>
@@ -5061,11 +5101,11 @@
       <c r="D143" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="F143" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>13</v>
       </c>
@@ -5078,11 +5118,11 @@
       <c r="D144" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="F144" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>15</v>
       </c>
@@ -5095,11 +5135,11 @@
       <c r="D145" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="F145" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>16</v>
       </c>
@@ -5112,11 +5152,11 @@
       <c r="D146" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="F146" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>142</v>
       </c>
@@ -5129,14 +5169,14 @@
       <c r="D147" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="H147" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K147" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I147" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="L147" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>143</v>
       </c>
@@ -5149,14 +5189,14 @@
       <c r="D148" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="H148" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K148" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I148" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="L148" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>144</v>
       </c>
@@ -5169,14 +5209,14 @@
       <c r="D149" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="H149" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K149" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I149" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="L149" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>145</v>
       </c>
@@ -5189,9 +5229,9 @@
       <c r="D150" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="H150" s="2"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I150" s="2"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>146</v>
       </c>
@@ -5204,14 +5244,14 @@
       <c r="D151" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="H151" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K151" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I151" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="L151" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>159</v>
       </c>
@@ -5224,14 +5264,14 @@
       <c r="D152" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="H152" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K152" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I152" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="L152" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>373</v>
       </c>
@@ -5244,18 +5284,18 @@
       <c r="D153" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E153" s="2" t="s">
+      <c r="F153" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="H153" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="J153"/>
-      <c r="K153" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I153" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K153"/>
+      <c r="L153" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>375</v>
       </c>
@@ -5268,18 +5308,18 @@
       <c r="D154" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="F154" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H154" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="J154"/>
-      <c r="K154" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I154" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K154"/>
+      <c r="L154" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>138</v>
       </c>
@@ -5292,11 +5332,8 @@
       <c r="D155" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E155" s="2" t="s">
+      <c r="F155" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="I155" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="J155" s="2" t="s">
         <v>342</v>
@@ -5304,8 +5341,11 @@
       <c r="K155" s="2" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L155" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>139</v>
       </c>
@@ -5318,11 +5358,11 @@
       <c r="D156" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E156" s="2" t="s">
+      <c r="F156" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>4</v>
       </c>
@@ -5335,17 +5375,17 @@
       <c r="D157" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="F157" s="2" t="s">
-        <v>342</v>
-      </c>
       <c r="G157" s="2" t="s">
         <v>342</v>
       </c>
       <c r="H157" s="2" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I157" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>137</v>
       </c>
@@ -5358,11 +5398,11 @@
       <c r="D158" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E158" s="2" t="s">
+      <c r="F158" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>136</v>
       </c>
@@ -5375,17 +5415,17 @@
       <c r="D159" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="F159" s="2" t="s">
-        <v>343</v>
-      </c>
       <c r="G159" s="2" t="s">
         <v>343</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I159" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>140</v>
       </c>
@@ -5398,17 +5438,17 @@
       <c r="D160" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E160" s="2" t="s">
+      <c r="F160" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="G160" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H160" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I160" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>141</v>
       </c>
@@ -5422,7 +5462,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>17</v>
       </c>
@@ -5436,7 +5476,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>349</v>
       </c>
@@ -5449,14 +5489,14 @@
       <c r="D163" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E163" s="2" t="s">
+      <c r="F163" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="I163" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J163" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>350</v>
       </c>
@@ -5469,17 +5509,17 @@
       <c r="D164" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E164" s="2" t="s">
+      <c r="F164" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="K164" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L164" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>351</v>
       </c>
@@ -5492,17 +5532,17 @@
       <c r="D165" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E165" s="2" t="s">
+      <c r="F165" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="J165" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="K165" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L165" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>352</v>
       </c>
@@ -5515,17 +5555,17 @@
       <c r="D166" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E166" s="2" t="s">
+      <c r="F166" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="J166" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="K166" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L166" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>353</v>
       </c>
@@ -5538,17 +5578,17 @@
       <c r="D167" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E167" s="2" t="s">
+      <c r="F167" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="J167" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="K167" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L167" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>354</v>
       </c>
@@ -5561,17 +5601,17 @@
       <c r="D168" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E168" s="2" t="s">
+      <c r="F168" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="J168" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="K168" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L168" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>355</v>
       </c>
@@ -5584,17 +5624,17 @@
       <c r="D169" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E169" s="2" t="s">
+      <c r="F169" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="K169" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L169" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>356</v>
       </c>
@@ -5607,17 +5647,17 @@
       <c r="D170" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E170" s="2" t="s">
+      <c r="F170" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="K170" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L170" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>357</v>
       </c>
@@ -5630,17 +5670,17 @@
       <c r="D171" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E171" s="2" t="s">
+      <c r="F171" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="J171" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="K171" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L171" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>358</v>
       </c>
@@ -5653,17 +5693,17 @@
       <c r="D172" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E172" s="2" t="s">
+      <c r="F172" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="K172" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L172" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>359</v>
       </c>
@@ -5676,19 +5716,19 @@
       <c r="D173" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E173" s="2" t="s">
+      <c r="F173" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="J173" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="K173" s="2" t="s">
         <v>341</v>
       </c>
+      <c r="L173" s="2" t="s">
+        <v>341</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E161">
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F161">
       <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>

--- a/Variable Index.xlsx
+++ b/Variable Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijyli\repo\Stat-222-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7B6BB1-8478-417B-AEB5-D2D81A91564C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D02943-62C5-4371-8570-AC0ED845B431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$173</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="380">
   <si>
     <t>column_name</t>
   </si>
@@ -1532,7 +1532,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F10" sqref="F10"/>
+      <selection pane="topRight" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2224,18 +2224,7 @@
       <c r="D32" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>341</v>
-      </c>
+      <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
@@ -3394,18 +3383,7 @@
       <c r="D77" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="H77" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>341</v>
-      </c>
+      <c r="I77" s="2"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
@@ -4200,18 +4178,7 @@
       <c r="D108" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="H108" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K108" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="L108" s="2" t="s">
-        <v>341</v>
-      </c>
+      <c r="I108" s="2"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
@@ -4969,18 +4936,7 @@
       <c r="D137" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="H137" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K137" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="L137" s="2" t="s">
-        <v>341</v>
-      </c>
+      <c r="I137" s="2"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
@@ -4995,18 +4951,7 @@
       <c r="D138" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="H138" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="I138" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K138" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="L138" s="2" t="s">
-        <v>341</v>
-      </c>
+      <c r="I138" s="2"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
@@ -5727,7 +5672,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:F173" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F161">
       <sortCondition ref="C1"/>
     </sortState>

--- a/Variable Index.xlsx
+++ b/Variable Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijyli\repo\Stat-222-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D02943-62C5-4371-8570-AC0ED845B431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F97689-A2E2-40F8-B14E-D89F43DD269B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="381">
   <si>
     <t>column_name</t>
   </si>
@@ -1163,6 +1163,9 @@
   </si>
   <si>
     <t>Ratio?</t>
+  </si>
+  <si>
+    <t>Not needed, always USD</t>
   </si>
 </sst>
 </file>
@@ -1530,9 +1533,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2198,18 +2201,10 @@
       <c r="D31" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>341</v>
-      </c>
+      <c r="F31" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">

--- a/Variable Index.xlsx
+++ b/Variable Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijyli\repo\Stat-222-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F97689-A2E2-40F8-B14E-D89F43DD269B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D80D91B-3DFD-4BCB-9C65-CB601C3A7401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="451">
   <si>
     <t>column_name</t>
   </si>
@@ -502,9 +502,6 @@
     <t>OU</t>
   </si>
   <si>
-    <t>TONE1</t>
-  </si>
-  <si>
     <t>Clean Column Name</t>
   </si>
   <si>
@@ -1166,6 +1163,219 @@
   </si>
   <si>
     <t>Not needed, always USD</t>
+  </si>
+  <si>
+    <t>currentRatio</t>
+  </si>
+  <si>
+    <t>quickRatio</t>
+  </si>
+  <si>
+    <t>cashRatio</t>
+  </si>
+  <si>
+    <t>returnOnAssets</t>
+  </si>
+  <si>
+    <t>returnOnEquity</t>
+  </si>
+  <si>
+    <t>returnOnCapitalEmployed</t>
+  </si>
+  <si>
+    <t>EBITtoRevenue</t>
+  </si>
+  <si>
+    <t>debtRatio</t>
+  </si>
+  <si>
+    <t>debtRatioAlt</t>
+  </si>
+  <si>
+    <t>debtEquityRatio</t>
+  </si>
+  <si>
+    <t>equityMultiplier</t>
+  </si>
+  <si>
+    <t>enterpriseValueMultiplier</t>
+  </si>
+  <si>
+    <t>operatingCashFlowPerShare</t>
+  </si>
+  <si>
+    <t>freeCashFlowPerShare</t>
+  </si>
+  <si>
+    <t>cashPerShare</t>
+  </si>
+  <si>
+    <t>operatingCashFlowToSales</t>
+  </si>
+  <si>
+    <t>freeCashFlowToOperatingCashFlow</t>
+  </si>
+  <si>
+    <t>currentRatio_diff</t>
+  </si>
+  <si>
+    <t>quickRatio_diff</t>
+  </si>
+  <si>
+    <t>cashRatio_diff</t>
+  </si>
+  <si>
+    <t>returnOnAssets_diff</t>
+  </si>
+  <si>
+    <t>returnOnEquity_diff</t>
+  </si>
+  <si>
+    <t>returnOnCapitalEmployed_diff</t>
+  </si>
+  <si>
+    <t>EBITtoRevenue_diff</t>
+  </si>
+  <si>
+    <t>debtRatio_diff</t>
+  </si>
+  <si>
+    <t>debtRatioAlt_diff</t>
+  </si>
+  <si>
+    <t>debtEquityRatio_diff</t>
+  </si>
+  <si>
+    <t>equityMultiplier_diff</t>
+  </si>
+  <si>
+    <t>enterpriseValueMultiplier_diff</t>
+  </si>
+  <si>
+    <t>operatingCashFlowPerShare_diff</t>
+  </si>
+  <si>
+    <t>freeCashFlowPerShare_diff</t>
+  </si>
+  <si>
+    <t>cashPerShare_diff</t>
+  </si>
+  <si>
+    <t>operatingCashFlowToSales_diff</t>
+  </si>
+  <si>
+    <t>freeCashFlowToOperatingCashFlow_diff</t>
+  </si>
+  <si>
+    <t>tone</t>
+  </si>
+  <si>
+    <t>Additional Ratios</t>
+  </si>
+  <si>
+    <t>Additional Change Ratios</t>
+  </si>
+  <si>
+    <t>Current Ratio</t>
+  </si>
+  <si>
+    <t>Quick Ratio</t>
+  </si>
+  <si>
+    <t>Cash Ratio</t>
+  </si>
+  <si>
+    <t>Debt Ratio</t>
+  </si>
+  <si>
+    <t>Equity Multiplier</t>
+  </si>
+  <si>
+    <t>Return on Assets</t>
+  </si>
+  <si>
+    <t>Return on Equity</t>
+  </si>
+  <si>
+    <t>Return on Capital Employed</t>
+  </si>
+  <si>
+    <t>EBIT to Revenue</t>
+  </si>
+  <si>
+    <t>Debt Ratio (Alternative Definition)</t>
+  </si>
+  <si>
+    <t>Debt to Equity Ratio</t>
+  </si>
+  <si>
+    <t>Enterprise Value Multiplier</t>
+  </si>
+  <si>
+    <t>Operating Cash Flow Per Share</t>
+  </si>
+  <si>
+    <t>Free Cash Flow Per Share</t>
+  </si>
+  <si>
+    <t>Cash Per Share</t>
+  </si>
+  <si>
+    <t>Operating Cash Flow to Sales</t>
+  </si>
+  <si>
+    <t>Free Cash Flow to Operating Cash Flow</t>
+  </si>
+  <si>
+    <t>Differnce in Current Ratio from prior fixed quarter</t>
+  </si>
+  <si>
+    <t>Difference in Quick Ratio from prior fixed quarter</t>
+  </si>
+  <si>
+    <t>Difference in Cash Ratio from prior fixed quarter</t>
+  </si>
+  <si>
+    <t>Difference in Return on Assets from prior fixed quarter</t>
+  </si>
+  <si>
+    <t>Difference in Return on Equity from prior fixed quarter</t>
+  </si>
+  <si>
+    <t>Difference in Return on Capital Employed from prior fixed quarter</t>
+  </si>
+  <si>
+    <t>Difference in EBIT to Revenue from prior fixed quarter</t>
+  </si>
+  <si>
+    <t>Difference in Debt Ratio from prior fixed quarter</t>
+  </si>
+  <si>
+    <t>Difference in Debt Ratio (Alternative) from prior fixed quarter</t>
+  </si>
+  <si>
+    <t>Difference in Debt to Equity Ratio from prior fixed quarter</t>
+  </si>
+  <si>
+    <t>Difference in Equity Multiplier from prior fixed quarter</t>
+  </si>
+  <si>
+    <t>Difference in Enterprise Value Multiplier from prior fixed quarter</t>
+  </si>
+  <si>
+    <t>Difference in Operating Cash Flow Per Share from prior fixed quarter</t>
+  </si>
+  <si>
+    <t>Difference in Free Cash Flow Per Share from prior fixed quarter</t>
+  </si>
+  <si>
+    <t>Difference in Cash Per Share from prior fixed quarter</t>
+  </si>
+  <si>
+    <t>Difference in Operating Cash Flow to Sales from prior fixed quarter</t>
+  </si>
+  <si>
+    <t>Difference in Free Cash Flow to Operating Cash Flow from prior fixed quarter</t>
   </si>
 </sst>
 </file>
@@ -1531,17 +1741,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L173"/>
+  <dimension ref="A1:L207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.88671875" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
@@ -1557,37 +1767,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1595,22 +1805,22 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1621,22 +1831,22 @@
         <v>126</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1644,25 +1854,25 @@
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1670,25 +1880,25 @@
         <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1696,28 +1906,28 @@
         <v>129</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1725,28 +1935,28 @@
         <v>130</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1754,28 +1964,28 @@
         <v>131</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1783,28 +1993,28 @@
         <v>132</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1812,28 +2022,28 @@
         <v>133</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1841,19 +2051,19 @@
         <v>147</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1861,19 +2071,19 @@
         <v>148</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1881,19 +2091,19 @@
         <v>149</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1901,19 +2111,19 @@
         <v>150</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1921,19 +2131,19 @@
         <v>151</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1941,19 +2151,19 @@
         <v>152</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1961,19 +2171,19 @@
         <v>153</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1981,19 +2191,19 @@
         <v>154</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -2001,13 +2211,13 @@
         <v>155</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -2015,13 +2225,13 @@
         <v>156</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -2029,13 +2239,13 @@
         <v>157</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -2043,13 +2253,13 @@
         <v>158</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -2057,16 +2267,16 @@
         <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -2077,13 +2287,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -2094,13 +2304,13 @@
         <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -2108,16 +2318,16 @@
         <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -2125,16 +2335,16 @@
         <v>11</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -2142,16 +2352,16 @@
         <v>14</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -2162,13 +2372,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -2179,13 +2389,13 @@
         <v>9</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -2193,16 +2403,16 @@
         <v>18</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I31" s="2"/>
     </row>
@@ -2211,13 +2421,13 @@
         <v>19</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -2226,25 +2436,25 @@
         <v>20</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -2252,25 +2462,25 @@
         <v>21</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -2278,25 +2488,25 @@
         <v>22</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -2304,25 +2514,25 @@
         <v>23</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -2330,25 +2540,25 @@
         <v>24</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -2356,25 +2566,25 @@
         <v>25</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -2382,25 +2592,25 @@
         <v>26</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -2408,25 +2618,25 @@
         <v>27</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -2434,25 +2644,25 @@
         <v>28</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -2460,25 +2670,25 @@
         <v>29</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -2486,25 +2696,25 @@
         <v>30</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -2512,25 +2722,25 @@
         <v>31</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -2538,25 +2748,25 @@
         <v>32</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -2564,25 +2774,25 @@
         <v>33</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -2590,25 +2800,25 @@
         <v>34</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -2616,25 +2826,25 @@
         <v>35</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -2642,25 +2852,25 @@
         <v>36</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -2668,25 +2878,25 @@
         <v>37</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -2694,25 +2904,25 @@
         <v>38</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -2720,25 +2930,25 @@
         <v>39</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -2746,25 +2956,25 @@
         <v>40</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -2772,25 +2982,25 @@
         <v>41</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -2798,25 +3008,25 @@
         <v>42</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -2824,25 +3034,25 @@
         <v>43</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -2850,25 +3060,25 @@
         <v>44</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -2876,25 +3086,25 @@
         <v>45</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -2902,25 +3112,25 @@
         <v>46</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -2928,25 +3138,25 @@
         <v>47</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -2954,25 +3164,25 @@
         <v>48</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -2980,25 +3190,25 @@
         <v>49</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -3006,25 +3216,25 @@
         <v>50</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -3032,25 +3242,25 @@
         <v>51</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -3058,25 +3268,25 @@
         <v>52</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -3084,25 +3294,25 @@
         <v>53</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -3110,25 +3320,25 @@
         <v>54</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -3136,25 +3346,25 @@
         <v>55</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -3162,25 +3372,25 @@
         <v>56</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -3188,25 +3398,25 @@
         <v>57</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -3214,25 +3424,25 @@
         <v>58</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -3240,25 +3450,25 @@
         <v>59</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -3266,25 +3476,25 @@
         <v>60</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -3292,25 +3502,25 @@
         <v>61</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -3318,25 +3528,25 @@
         <v>62</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -3344,25 +3554,25 @@
         <v>63</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -3370,13 +3580,13 @@
         <v>64</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I77" s="2"/>
     </row>
@@ -3385,25 +3595,25 @@
         <v>65</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -3411,25 +3621,25 @@
         <v>66</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -3437,25 +3647,25 @@
         <v>67</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -3463,25 +3673,25 @@
         <v>68</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -3489,25 +3699,25 @@
         <v>69</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -3515,25 +3725,25 @@
         <v>70</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -3541,25 +3751,25 @@
         <v>71</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -3567,25 +3777,25 @@
         <v>72</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -3593,25 +3803,25 @@
         <v>73</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -3619,25 +3829,25 @@
         <v>74</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -3645,25 +3855,25 @@
         <v>75</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -3671,25 +3881,25 @@
         <v>76</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -3697,25 +3907,25 @@
         <v>77</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -3723,25 +3933,25 @@
         <v>78</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -3749,25 +3959,25 @@
         <v>79</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -3775,25 +3985,25 @@
         <v>80</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -3801,25 +4011,25 @@
         <v>81</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -3827,25 +4037,25 @@
         <v>82</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -3853,25 +4063,25 @@
         <v>83</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -3879,25 +4089,25 @@
         <v>84</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -3905,25 +4115,25 @@
         <v>85</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -3931,25 +4141,25 @@
         <v>86</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -3957,25 +4167,25 @@
         <v>87</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -3983,25 +4193,25 @@
         <v>88</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -4009,25 +4219,25 @@
         <v>89</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -4035,25 +4245,25 @@
         <v>90</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -4061,25 +4271,25 @@
         <v>91</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -4087,25 +4297,25 @@
         <v>92</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -4113,25 +4323,25 @@
         <v>93</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -4139,25 +4349,25 @@
         <v>94</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -4165,13 +4375,13 @@
         <v>95</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I108" s="2"/>
     </row>
@@ -4180,25 +4390,25 @@
         <v>96</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -4206,25 +4416,25 @@
         <v>97</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -4232,25 +4442,25 @@
         <v>98</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -4258,28 +4468,28 @@
         <v>99</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -4287,25 +4497,25 @@
         <v>100</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -4313,25 +4523,25 @@
         <v>101</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -4339,25 +4549,25 @@
         <v>102</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -4365,25 +4575,25 @@
         <v>103</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -4391,25 +4601,25 @@
         <v>104</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -4417,25 +4627,25 @@
         <v>105</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -4443,25 +4653,25 @@
         <v>106</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -4469,25 +4679,25 @@
         <v>107</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -4495,25 +4705,25 @@
         <v>108</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -4521,25 +4731,25 @@
         <v>109</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -4547,25 +4757,25 @@
         <v>110</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -4573,28 +4783,28 @@
         <v>111</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -4602,25 +4812,25 @@
         <v>112</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -4628,28 +4838,28 @@
         <v>113</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -4657,25 +4867,25 @@
         <v>114</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -4683,25 +4893,25 @@
         <v>115</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
@@ -4709,28 +4919,28 @@
         <v>116</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
@@ -4738,25 +4948,25 @@
         <v>117</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
@@ -4764,25 +4974,25 @@
         <v>118</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
@@ -4790,28 +5000,28 @@
         <v>119</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
@@ -4819,25 +5029,25 @@
         <v>120</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
@@ -4845,25 +5055,25 @@
         <v>121</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
@@ -4871,25 +5081,25 @@
         <v>122</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
@@ -4897,25 +5107,25 @@
         <v>123</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
@@ -4923,13 +5133,13 @@
         <v>124</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I137" s="2"/>
     </row>
@@ -4938,13 +5148,13 @@
         <v>135</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I138" s="2"/>
     </row>
@@ -4953,28 +5163,28 @@
         <v>125</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
@@ -4982,16 +5192,16 @@
         <v>1</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
@@ -4999,16 +5209,16 @@
         <v>2</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
@@ -5016,16 +5226,16 @@
         <v>3</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
@@ -5033,16 +5243,16 @@
         <v>12</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
@@ -5050,16 +5260,16 @@
         <v>13</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -5067,16 +5277,16 @@
         <v>15</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -5084,16 +5294,16 @@
         <v>16</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
@@ -5101,19 +5311,19 @@
         <v>142</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
@@ -5121,19 +5331,19 @@
         <v>143</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
@@ -5141,19 +5351,19 @@
         <v>144</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -5161,13 +5371,13 @@
         <v>145</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I150" s="2"/>
     </row>
@@ -5176,87 +5386,87 @@
         <v>146</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>159</v>
+        <v>414</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>374</v>
-      </c>
       <c r="C153" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K153"/>
       <c r="L153" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="C154" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F154" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>377</v>
-      </c>
       <c r="I154" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K154"/>
       <c r="L154" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -5267,22 +5477,22 @@
         <v>138</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -5293,13 +5503,13 @@
         <v>139</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -5310,19 +5520,19 @@
         <v>4</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
@@ -5330,16 +5540,16 @@
         <v>137</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
@@ -5347,22 +5557,22 @@
         <v>136</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -5376,16 +5586,16 @@
         <v>140</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
@@ -5393,13 +5603,13 @@
         <v>141</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
@@ -5407,263 +5617,1147 @@
         <v>17</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L164" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L165" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L166" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K167" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L167" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L168" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K169" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F170" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>372</v>
-      </c>
       <c r="K170" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L170" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K171" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L171" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K172" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L172" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>360</v>
-      </c>
       <c r="D173" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K173" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L173" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="L173" s="2" t="s">
+      <c r="H174" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K174" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L174" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>341</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="I175" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K175" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L175" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="I176" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K176" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L176" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="I177" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K177" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L177" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="I178" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K178" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L178" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="I179" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K179" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L179" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="I180" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K180" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L180" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="I181" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K181" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L181" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="I182" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K182" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L182" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="I183" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K183" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L183" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="I184" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K184" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L184" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="I185" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K185" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L185" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="I186" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K186" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L186" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="I187" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K187" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L187" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="I188" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K188" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L188" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="I189" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K189" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L189" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="I190" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K190" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L190" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A191" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="K191" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L191" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="K192" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L192" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="K193" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L193" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="K194" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L194" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="K195" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L195" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="K196" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L196" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A197" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="K197" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L197" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A198" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="K198" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L198" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A199" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="K199" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L199" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A200" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="K200" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L200" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A201" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="K201" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L201" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A202" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="K202" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L202" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="K203" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L203" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A204" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="K204" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L204" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A205" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="K205" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L205" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A206" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="K206" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L206" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A207" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="K207" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="L207" s="2" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/Variable Index.xlsx
+++ b/Variable Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijyli\repo\Stat-222-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D80D91B-3DFD-4BCB-9C65-CB601C3A7401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AC14A0-F123-4385-BD76-B7E9875E40C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$172</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="449">
   <si>
     <t>column_name</t>
   </si>
@@ -463,9 +463,6 @@
     <t>num_questions</t>
   </si>
   <si>
-    <t>pos_score</t>
-  </si>
-  <si>
     <t>Positiv</t>
   </si>
   <si>
@@ -1021,9 +1018,6 @@
     <t>Year Calls and Financial Statements are For - Linear time trend or fixed effect</t>
   </si>
   <si>
-    <t>Positivity Score</t>
-  </si>
-  <si>
     <t>Data Type</t>
   </si>
   <si>
@@ -1153,9 +1147,6 @@
     <t>FinBERT Positivity Score</t>
   </si>
   <si>
-    <t>Could replace old positivity score but not going to since diff methodology</t>
-  </si>
-  <si>
     <t>Replaces old questions variable, less colinear with word count</t>
   </si>
   <si>
@@ -1376,6 +1367,9 @@
   </si>
   <si>
     <t>Difference in Free Cash Flow to Operating Cash Flow from prior fixed quarter</t>
+  </si>
+  <si>
+    <t>Supersedes pos_score</t>
   </si>
 </sst>
 </file>
@@ -1741,11 +1735,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L207"/>
+  <dimension ref="A1:L206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F154" sqref="F154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1767,37 +1761,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1805,22 +1799,22 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1831,22 +1825,22 @@
         <v>126</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1854,25 +1848,25 @@
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1880,25 +1874,25 @@
         <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1906,28 +1900,28 @@
         <v>129</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1935,28 +1929,28 @@
         <v>130</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1964,28 +1958,28 @@
         <v>131</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1993,28 +1987,28 @@
         <v>132</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -2022,244 +2016,244 @@
         <v>133</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -2267,16 +2261,16 @@
         <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -2287,13 +2281,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -2304,13 +2298,13 @@
         <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -2318,16 +2312,16 @@
         <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -2335,16 +2329,16 @@
         <v>11</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -2352,16 +2346,16 @@
         <v>14</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -2372,13 +2366,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -2389,13 +2383,13 @@
         <v>9</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -2403,16 +2397,16 @@
         <v>18</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I31" s="2"/>
     </row>
@@ -2421,13 +2415,13 @@
         <v>19</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -2436,25 +2430,25 @@
         <v>20</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -2462,25 +2456,25 @@
         <v>21</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -2488,25 +2482,25 @@
         <v>22</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -2514,25 +2508,25 @@
         <v>23</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -2540,25 +2534,25 @@
         <v>24</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -2566,25 +2560,25 @@
         <v>25</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -2592,25 +2586,25 @@
         <v>26</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -2618,25 +2612,25 @@
         <v>27</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -2644,25 +2638,25 @@
         <v>28</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -2670,25 +2664,25 @@
         <v>29</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -2696,25 +2690,25 @@
         <v>30</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -2722,25 +2716,25 @@
         <v>31</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -2748,25 +2742,25 @@
         <v>32</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -2774,25 +2768,25 @@
         <v>33</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -2800,25 +2794,25 @@
         <v>34</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -2826,25 +2820,25 @@
         <v>35</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -2852,25 +2846,25 @@
         <v>36</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -2878,25 +2872,25 @@
         <v>37</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -2904,25 +2898,25 @@
         <v>38</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -2930,25 +2924,25 @@
         <v>39</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -2956,25 +2950,25 @@
         <v>40</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -2982,25 +2976,25 @@
         <v>41</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -3008,25 +3002,25 @@
         <v>42</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -3034,25 +3028,25 @@
         <v>43</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -3060,25 +3054,25 @@
         <v>44</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -3086,25 +3080,25 @@
         <v>45</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -3112,25 +3106,25 @@
         <v>46</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -3138,25 +3132,25 @@
         <v>47</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -3164,25 +3158,25 @@
         <v>48</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -3190,25 +3184,25 @@
         <v>49</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -3216,25 +3210,25 @@
         <v>50</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -3242,25 +3236,25 @@
         <v>51</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -3268,25 +3262,25 @@
         <v>52</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -3294,25 +3288,25 @@
         <v>53</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -3320,25 +3314,25 @@
         <v>54</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -3346,25 +3340,25 @@
         <v>55</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -3372,25 +3366,25 @@
         <v>56</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -3398,25 +3392,25 @@
         <v>57</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -3424,25 +3418,25 @@
         <v>58</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -3450,25 +3444,25 @@
         <v>59</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -3476,25 +3470,25 @@
         <v>60</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -3502,25 +3496,25 @@
         <v>61</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -3528,25 +3522,25 @@
         <v>62</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -3554,25 +3548,25 @@
         <v>63</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -3580,13 +3574,13 @@
         <v>64</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I77" s="2"/>
     </row>
@@ -3595,25 +3589,25 @@
         <v>65</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -3621,25 +3615,25 @@
         <v>66</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -3647,25 +3641,25 @@
         <v>67</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -3673,25 +3667,25 @@
         <v>68</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -3699,25 +3693,25 @@
         <v>69</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -3725,25 +3719,25 @@
         <v>70</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -3751,25 +3745,25 @@
         <v>71</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -3777,25 +3771,25 @@
         <v>72</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -3803,25 +3797,25 @@
         <v>73</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -3829,25 +3823,25 @@
         <v>74</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -3855,25 +3849,25 @@
         <v>75</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -3881,25 +3875,25 @@
         <v>76</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -3907,25 +3901,25 @@
         <v>77</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -3933,25 +3927,25 @@
         <v>78</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -3959,25 +3953,25 @@
         <v>79</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -3985,25 +3979,25 @@
         <v>80</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -4011,25 +4005,25 @@
         <v>81</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -4037,25 +4031,25 @@
         <v>82</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -4063,25 +4057,25 @@
         <v>83</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -4089,25 +4083,25 @@
         <v>84</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -4115,25 +4109,25 @@
         <v>85</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -4141,25 +4135,25 @@
         <v>86</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -4167,25 +4161,25 @@
         <v>87</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -4193,25 +4187,25 @@
         <v>88</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -4219,25 +4213,25 @@
         <v>89</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -4245,25 +4239,25 @@
         <v>90</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -4271,25 +4265,25 @@
         <v>91</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -4297,25 +4291,25 @@
         <v>92</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -4323,25 +4317,25 @@
         <v>93</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -4349,25 +4343,25 @@
         <v>94</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -4375,13 +4369,13 @@
         <v>95</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I108" s="2"/>
     </row>
@@ -4390,25 +4384,25 @@
         <v>96</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -4416,25 +4410,25 @@
         <v>97</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -4442,25 +4436,25 @@
         <v>98</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -4468,28 +4462,28 @@
         <v>99</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -4497,25 +4491,25 @@
         <v>100</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -4523,25 +4517,25 @@
         <v>101</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -4549,25 +4543,25 @@
         <v>102</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -4575,25 +4569,25 @@
         <v>103</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -4601,25 +4595,25 @@
         <v>104</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -4627,25 +4621,25 @@
         <v>105</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -4653,25 +4647,25 @@
         <v>106</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -4679,25 +4673,25 @@
         <v>107</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -4705,25 +4699,25 @@
         <v>108</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -4731,25 +4725,25 @@
         <v>109</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -4757,25 +4751,25 @@
         <v>110</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -4783,28 +4777,28 @@
         <v>111</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -4812,25 +4806,25 @@
         <v>112</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -4838,28 +4832,28 @@
         <v>113</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -4867,25 +4861,25 @@
         <v>114</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -4893,25 +4887,25 @@
         <v>115</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
@@ -4919,28 +4913,28 @@
         <v>116</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
@@ -4948,25 +4942,25 @@
         <v>117</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
@@ -4974,25 +4968,25 @@
         <v>118</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
@@ -5000,28 +4994,28 @@
         <v>119</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
@@ -5029,25 +5023,25 @@
         <v>120</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
@@ -5055,25 +5049,25 @@
         <v>121</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
@@ -5081,25 +5075,25 @@
         <v>122</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
@@ -5107,25 +5101,25 @@
         <v>123</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
@@ -5133,13 +5127,13 @@
         <v>124</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I137" s="2"/>
     </row>
@@ -5148,13 +5142,13 @@
         <v>135</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I138" s="2"/>
     </row>
@@ -5163,28 +5157,28 @@
         <v>125</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
@@ -5192,16 +5186,16 @@
         <v>1</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
@@ -5209,16 +5203,16 @@
         <v>2</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
@@ -5226,16 +5220,16 @@
         <v>3</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
@@ -5243,16 +5237,16 @@
         <v>12</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
@@ -5260,16 +5254,16 @@
         <v>13</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -5277,16 +5271,16 @@
         <v>15</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -5294,16 +5288,16 @@
         <v>16</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
@@ -5311,19 +5305,19 @@
         <v>142</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
@@ -5331,19 +5325,19 @@
         <v>143</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
@@ -5351,19 +5345,19 @@
         <v>144</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -5371,54 +5365,58 @@
         <v>145</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I150" s="2"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>146</v>
+        <v>411</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>414</v>
+        <v>370</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>306</v>
+        <v>371</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>374</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>340</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="K152"/>
       <c r="L152" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
@@ -5429,184 +5427,174 @@
         <v>373</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>377</v>
+        <v>448</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K153"/>
       <c r="L153" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>374</v>
+        <v>138</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>375</v>
+        <v>138</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>334</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="I154" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="K154"/>
+        <v>323</v>
+      </c>
+      <c r="J154" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="K154" s="2" t="s">
+        <v>339</v>
+      </c>
       <c r="L154" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="J155" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K155" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="L155" s="2" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="F156" s="2" t="s">
-        <v>322</v>
+      <c r="G156" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>4</v>
+        <v>176</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="H157" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="I157" s="2" t="s">
-        <v>341</v>
+        <v>334</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>177</v>
+        <v>288</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>311</v>
+        <v>8</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>323</v>
+        <v>334</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>289</v>
+        <v>140</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>342</v>
+        <v>334</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>140</v>
+        <v>313</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="H160" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="I160" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>336</v>
@@ -5614,1155 +5602,1141 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>17</v>
+        <v>346</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>161</v>
+        <v>358</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="D162" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J162" s="2" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="J163" s="2" t="s">
-        <v>340</v>
+        <v>369</v>
+      </c>
+      <c r="K163" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="L163" s="2" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L164" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L165" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L166" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K167" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L167" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L168" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K169" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L170" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K171" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L171" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C172" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>359</v>
-      </c>
       <c r="D172" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K172" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L172" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>359</v>
+        <v>412</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>371</v>
+        <v>332</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="I173" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="K173" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L173" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K174" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L174" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K175" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L175" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>419</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K176" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L176" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K177" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L177" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K178" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L178" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K179" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L179" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K180" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L180" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K181" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L181" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K182" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L182" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K183" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L183" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K184" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L184" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K185" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L185" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K186" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L186" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K187" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L187" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K188" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L188" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K189" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L189" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="H190" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="I190" s="2" t="s">
-        <v>340</v>
+        <v>332</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="K190" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L190" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K191" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L191" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K192" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L192" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K193" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L193" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K194" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L194" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K195" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L195" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K196" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L196" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K197" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L197" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L198" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K199" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L199" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K200" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L200" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K201" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L201" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K202" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L202" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K203" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L203" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K204" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L204" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K205" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L205" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K206" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L206" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A207" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="K207" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="L207" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F173" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F161">
+  <autoFilter ref="A1:F172" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F160">
       <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>

--- a/Variable Index.xlsx
+++ b/Variable Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijyli\repo\Stat-222-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AC14A0-F123-4385-BD76-B7E9875E40C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46611860-D6F9-4E0A-9B3F-2BCB93E57054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="449">
   <si>
     <t>column_name</t>
   </si>
@@ -1737,9 +1737,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F154" sqref="F154"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J152" sqref="J152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5571,6 +5571,12 @@
       <c r="I159" s="2" t="s">
         <v>338</v>
       </c>
+      <c r="K159" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="L159" s="2" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
